--- a/SOURCE/work.xlsx
+++ b/SOURCE/work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12930" activeTab="2"/>
+    <workbookView windowHeight="17925" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作任务拆分" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="98">
   <si>
     <t>算子拆分</t>
   </si>
@@ -299,6 +299,15 @@
   </si>
   <si>
     <t>reshape不做了...</t>
+  </si>
+  <si>
+    <t>sparse</t>
+  </si>
+  <si>
+    <t>完成加速器sparse模块的代码编写、c仿真、RTL仿真</t>
+  </si>
+  <si>
+    <t>改成sparse</t>
   </si>
   <si>
     <t>concat差上板测试</t>
@@ -353,13 +362,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -383,11 +385,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,22 +410,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,31 +454,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,9 +468,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,14 +484,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,7 +539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.5"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,13 +551,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,19 +665,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,103 +707,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,31 +725,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,6 +965,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -966,6 +990,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -987,32 +1022,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1022,109 +1031,109 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1133,37 +1142,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1217,12 +1226,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1256,6 +1265,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1263,9 +1275,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2863,14 +2872,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="33.8888888888889" customWidth="1"/>
     <col min="6" max="7" width="14.5555555555556"/>
     <col min="9" max="9" width="25.3333333333333" customWidth="1"/>
@@ -3018,7 +3028,7 @@
       <c r="H7" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="18" t="s">
         <v>65</v>
       </c>
       <c r="J7" s="14"/>
@@ -3157,14 +3167,14 @@
       <c r="C13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="28">
         <v>1</v>
       </c>
     </row>
@@ -3174,10 +3184,10 @@
       <c r="C14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="5" t="s">
         <v>68</v>
       </c>
       <c r="F14" s="19">
@@ -3186,123 +3196,120 @@
       <c r="G14" s="19">
         <v>45426</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="19" t="s">
         <v>74</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31">
+      <c r="J14" s="7"/>
+      <c r="K14" s="28">
         <v>2</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="30" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" ht="22.5" spans="1:11">
       <c r="A15" s="6"/>
       <c r="B15" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" ht="22.5" spans="1:11">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" ht="45" spans="1:12">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="20">
-        <v>45427</v>
-      </c>
-      <c r="G16" s="20">
-        <v>45430</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="29"/>
-    </row>
-    <row r="17" ht="45" spans="1:11">
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" ht="22.5" spans="1:11">
       <c r="A17" s="6"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="20">
-        <v>45432</v>
-      </c>
-      <c r="G17" s="20">
-        <v>45437</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="B17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="14"/>
       <c r="K17" s="29"/>
     </row>
     <row r="18" ht="22.5" spans="1:11">
       <c r="A18" s="6"/>
-      <c r="B18" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="10"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="20">
+        <v>45427</v>
+      </c>
+      <c r="G18" s="20">
+        <v>45430</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="J18" s="14"/>
       <c r="K18" s="29"/>
     </row>
-    <row r="19" ht="22.5" spans="1:11">
+    <row r="19" ht="45" spans="1:11">
       <c r="A19" s="6"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="17" t="s">
-        <v>54</v>
-      </c>
+      <c r="C19" s="16"/>
       <c r="D19" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>68</v>
       </c>
       <c r="F19" s="20">
-        <v>45438</v>
+        <v>45432</v>
       </c>
       <c r="G19" s="20">
-        <v>45443</v>
+        <v>45437</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>81</v>
@@ -3314,159 +3321,202 @@
       <c r="K19" s="29"/>
     </row>
     <row r="20" ht="22.5" spans="1:12">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="27"/>
+    </row>
+    <row r="21" ht="22.5" spans="1:11">
+      <c r="A21" s="17"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="20">
+        <v>45438</v>
+      </c>
+      <c r="G21" s="20">
+        <v>45443</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="29"/>
+    </row>
+    <row r="22" ht="27.75" spans="1:12">
+      <c r="A22" s="17"/>
+      <c r="B22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="27"/>
-    </row>
-    <row r="21" ht="22.5" spans="1:11">
-      <c r="A21" s="18"/>
-      <c r="B21" s="8" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" ht="22.5" spans="1:11">
+      <c r="A23" s="17"/>
+      <c r="B23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="31">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="45" spans="1:12">
-      <c r="A22" s="18"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="5" t="s">
+    <row r="24" ht="45" spans="1:11">
+      <c r="A24" s="17"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D24" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F24" s="19">
         <v>45418</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G24" s="19">
         <v>45426</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H24" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="31">
+      <c r="J24" s="7"/>
+      <c r="K24" s="28">
         <v>2</v>
       </c>
-      <c r="L22" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" ht="22.5" spans="1:11">
-      <c r="A23" s="18"/>
-      <c r="B23" s="8" t="s">
+    </row>
+    <row r="25" ht="22.5" spans="1:11">
+      <c r="A25" s="17"/>
+      <c r="B25" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="29"/>
-    </row>
-    <row r="24" ht="22.5" spans="1:11">
-      <c r="A24" s="18"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="20">
-        <v>45431</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="29"/>
-    </row>
-    <row r="25" ht="22.5" spans="1:11">
-      <c r="A25" s="18"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="20">
-        <v>45437</v>
-      </c>
-      <c r="G25" s="20">
-        <v>45442</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>65</v>
-      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="14"/>
       <c r="K25" s="29"/>
     </row>
+    <row r="26" ht="22.5" spans="2:11">
+      <c r="B26" s="8"/>
+      <c r="C26" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="20">
+        <v>45431</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="29"/>
+    </row>
+    <row r="27" ht="22.5" spans="2:11">
+      <c r="B27" s="8"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="20">
+        <v>45437</v>
+      </c>
+      <c r="G27" s="20">
+        <v>45442</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B12"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="C7:C12"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C26:C27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/SOURCE/work.xlsx
+++ b/SOURCE/work.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="98">
   <si>
     <t>算子拆分</t>
   </si>
@@ -318,10 +318,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -362,16 +362,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,7 +395,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,13 +421,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -454,15 +455,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,38 +499,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,6 +521,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -539,6 +545,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -557,175 +569,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,6 +957,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,21 +1026,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1034,124 +1040,124 @@
     <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1163,20 +1169,20 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1199,49 +1205,55 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1268,10 +1280,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1293,31 +1305,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1332,7 +1344,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1806,243 +1818,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="60"/>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="62"/>
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="66" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61"/>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="61" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61"/>
-      <c r="B4" s="45" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="61" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="61"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45" t="s">
+      <c r="A5" s="63"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="65" t="s">
+      <c r="G5" s="61"/>
+      <c r="H5" s="67" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="61"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="63"/>
+      <c r="B6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="65" t="s">
+      <c r="G6" s="61"/>
+      <c r="H6" s="67" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="59"/>
+      <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45" t="s">
+      <c r="A8" s="63"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="59"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45" t="s">
+      <c r="A9" s="63"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="59"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="61"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="63"/>
+      <c r="B10" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="59"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="65" t="s">
+      <c r="G11" s="61"/>
+      <c r="H11" s="67" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="61"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="59"/>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="61"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="63"/>
+      <c r="B13" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="59"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="61"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="61"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="63"/>
+      <c r="B14" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="59"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="61"/>
     </row>
     <row r="15" ht="15.75" spans="1:7">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63" t="s">
+      <c r="A15" s="64"/>
+      <c r="B15" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="66"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2080,12 +2092,12 @@
   <cols>
     <col min="1" max="1" width="8.88148148148148" customWidth="1"/>
     <col min="2" max="2" width="7.11111111111111" customWidth="1"/>
-    <col min="3" max="3" width="8.33333333333333" style="34" customWidth="1"/>
-    <col min="4" max="4" width="43.4444444444444" style="34" customWidth="1"/>
-    <col min="5" max="5" width="7.33333333333333" style="35" customWidth="1"/>
-    <col min="6" max="6" width="10.6666666666667" style="35" customWidth="1"/>
-    <col min="7" max="7" width="9.77777777777778" style="35" customWidth="1"/>
-    <col min="8" max="8" width="12.5555555555556" style="35" customWidth="1"/>
+    <col min="3" max="3" width="8.33333333333333" style="36" customWidth="1"/>
+    <col min="4" max="4" width="43.4444444444444" style="36" customWidth="1"/>
+    <col min="5" max="5" width="7.33333333333333" style="37" customWidth="1"/>
+    <col min="6" max="6" width="10.6666666666667" style="37" customWidth="1"/>
+    <col min="7" max="7" width="9.77777777777778" style="37" customWidth="1"/>
+    <col min="8" max="8" width="12.5555555555556" style="37" customWidth="1"/>
     <col min="9" max="9" width="22.7777777777778" customWidth="1"/>
     <col min="10" max="10" width="7.44444444444444" customWidth="1"/>
     <col min="11" max="11" width="6.11111111111111" customWidth="1"/>
@@ -2094,759 +2106,759 @@
   <sheetData>
     <row r="1" ht="15.75"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-    </row>
-    <row r="3" s="27" customFormat="1" ht="18.6" customHeight="1" spans="1:12">
-      <c r="A3" s="38" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+    </row>
+    <row r="3" s="29" customFormat="1" ht="18.6" customHeight="1" spans="1:12">
+      <c r="A3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="54">
         <v>45408</v>
       </c>
-      <c r="G3" s="52">
+      <c r="G3" s="54">
         <v>45412</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="41" t="s">
+      <c r="H3" s="54"/>
+      <c r="I3" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="27" t="s">
+      <c r="J3" s="43"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" s="27" customFormat="1" ht="39.6" customHeight="1" spans="1:11">
-      <c r="A4" s="42"/>
-      <c r="B4" s="39" t="s">
+    <row r="4" s="29" customFormat="1" ht="39.6" customHeight="1" spans="1:11">
+      <c r="A4" s="44"/>
+      <c r="B4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="54">
         <v>45409</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="54">
         <v>45425</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="41" t="s">
+      <c r="H4" s="54"/>
+      <c r="I4" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="58"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" ht="16.5" spans="1:11">
-      <c r="A5" s="42"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="44" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="59"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" ht="33" spans="1:11">
-      <c r="A6" s="42"/>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="54">
         <v>45405</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="54">
         <v>45421</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:11">
-      <c r="A7" s="42"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="54">
         <v>45407</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="54">
         <v>45412</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="59"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="61"/>
     </row>
     <row r="8" ht="16.5" spans="1:11">
-      <c r="A8" s="42"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="46" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="54">
         <v>45409</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="54">
         <v>45412</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="59"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="61"/>
     </row>
     <row r="9" ht="16.5" spans="1:11">
-      <c r="A9" s="42"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="41" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="54">
         <v>45407</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="54">
         <v>45412</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="59"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="61"/>
     </row>
     <row r="10" ht="16.5" spans="1:11">
-      <c r="A10" s="42"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="41" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="54">
         <v>45418</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="54">
         <v>45422</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="59"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="61"/>
     </row>
     <row r="11" ht="16.5" spans="1:11">
-      <c r="A11" s="42"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="41" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="54">
         <v>45423</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="54">
         <v>45428</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="45"/>
-      <c r="K11" s="59"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="61"/>
     </row>
     <row r="12" ht="16.5" spans="1:11">
-      <c r="A12" s="42"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="41" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="54">
         <v>45429</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="54">
         <v>45430</v>
       </c>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="45"/>
-      <c r="K12" s="59"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" ht="16.5" spans="1:11">
-      <c r="A13" s="42"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="45" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="54">
         <v>45431</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="54">
         <v>45436</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="59"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" ht="16.5" spans="1:11">
-      <c r="A14" s="42"/>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="54">
         <v>45405</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="54">
         <v>45423</v>
       </c>
-      <c r="H14" s="52" t="s">
+      <c r="H14" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="45"/>
-      <c r="K14" s="59">
+      <c r="J14" s="47"/>
+      <c r="K14" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:11">
-      <c r="A15" s="42"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="48" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="54">
         <v>45418</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="54">
         <v>45426</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="59">
+      <c r="J15" s="47"/>
+      <c r="K15" s="61">
         <v>2</v>
       </c>
     </row>
     <row r="16" ht="33" spans="1:11">
-      <c r="A16" s="42"/>
-      <c r="B16" s="39" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="54">
         <v>45422</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="54">
         <v>45426</v>
       </c>
-      <c r="H16" s="52" t="s">
+      <c r="H16" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="59"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="61"/>
     </row>
     <row r="17" ht="16.5" spans="1:11">
-      <c r="A17" s="42"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="44" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="54">
         <v>45427</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="54">
         <v>45430</v>
       </c>
-      <c r="H17" s="52" t="s">
+      <c r="H17" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="45"/>
-      <c r="K17" s="59"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="61"/>
     </row>
     <row r="18" ht="16.5" spans="1:11">
-      <c r="A18" s="42"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="41" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="54">
         <v>45432</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="54">
         <v>45437</v>
       </c>
-      <c r="H18" s="52" t="s">
+      <c r="H18" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="45"/>
-      <c r="K18" s="59"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="61"/>
     </row>
     <row r="19" ht="16.5" spans="1:11">
-      <c r="A19" s="42"/>
-      <c r="B19" s="39" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="54">
         <v>45427</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G19" s="54">
         <v>45434</v>
       </c>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="59"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="61"/>
     </row>
     <row r="20" ht="16.5" spans="1:11">
-      <c r="A20" s="42"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="48" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="54">
         <v>45438</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="54">
         <v>45443</v>
       </c>
-      <c r="H20" s="52" t="s">
+      <c r="H20" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="45"/>
-      <c r="K20" s="59"/>
-    </row>
-    <row r="21" s="27" customFormat="1" ht="18.6" customHeight="1" spans="1:12">
-      <c r="A21" s="49" t="s">
+      <c r="J20" s="47"/>
+      <c r="K20" s="61"/>
+    </row>
+    <row r="21" s="29" customFormat="1" ht="18.6" customHeight="1" spans="1:12">
+      <c r="A21" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="54">
         <v>45408</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="54">
         <v>45421</v>
       </c>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="41"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="27" t="s">
+      <c r="J21" s="43"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="29" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:11">
-      <c r="A22" s="49"/>
-      <c r="B22" s="39" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="54">
         <v>45409</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="54">
         <v>45423</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="45"/>
-      <c r="K22" s="59">
+      <c r="J22" s="47"/>
+      <c r="K22" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="1:11">
-      <c r="A23" s="49"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="48" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="54">
         <v>45418</v>
       </c>
-      <c r="G23" s="52">
+      <c r="G23" s="54">
         <v>45426</v>
       </c>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="41" t="s">
+      <c r="I23" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="J23" s="45"/>
-      <c r="K23" s="59">
+      <c r="J23" s="47"/>
+      <c r="K23" s="61">
         <v>2</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:11">
-      <c r="A24" s="49"/>
-      <c r="B24" s="39" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="52">
+      <c r="F24" s="54">
         <v>45426</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="54">
         <v>45430</v>
       </c>
-      <c r="H24" s="52" t="s">
+      <c r="H24" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I24" s="41" t="s">
+      <c r="I24" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="45"/>
-      <c r="K24" s="59"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="61"/>
     </row>
     <row r="25" ht="16.5" spans="1:11">
-      <c r="A25" s="49"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="48" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="52">
+      <c r="F25" s="54">
         <v>45431</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="52" t="s">
+      <c r="H25" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="I25" s="41" t="s">
+      <c r="I25" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="45"/>
-      <c r="K25" s="59"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="61"/>
     </row>
     <row r="26" ht="16.5" spans="1:11">
-      <c r="A26" s="49"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="41" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F26" s="54">
         <v>45437</v>
       </c>
-      <c r="G26" s="52">
+      <c r="G26" s="54">
         <v>45442</v>
       </c>
-      <c r="H26" s="52" t="s">
+      <c r="H26" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="59"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="61"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="51"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="53"/>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2875,7 +2887,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -2913,13 +2925,13 @@
       <c r="I1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="25"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" ht="20.25" spans="1:12">
       <c r="A2" s="3" t="s">
@@ -2929,13 +2941,13 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" ht="20.25" spans="1:12">
       <c r="A3" s="6"/>
@@ -2945,13 +2957,13 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" ht="22.5" spans="1:12">
       <c r="A4" s="6"/>
@@ -2974,7 +2986,7 @@
         <v>57</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="28"/>
+      <c r="K4" s="30"/>
       <c r="L4" t="s">
         <v>92</v>
       </c>
@@ -2987,12 +2999,12 @@
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="10"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="29"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" ht="20.25" spans="1:11">
       <c r="A6" s="6"/>
@@ -3000,12 +3012,12 @@
       <c r="C6" s="11"/>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="10"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="29"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" ht="22.5" spans="1:11">
       <c r="A7" s="6"/>
@@ -3016,23 +3028,23 @@
       <c r="D7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="22">
         <v>45409</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="22">
         <v>45412</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="20" t="s">
         <v>65</v>
       </c>
       <c r="J7" s="14"/>
-      <c r="K7" s="29"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" ht="22.5" spans="1:11">
       <c r="A8" s="6"/>
@@ -3041,23 +3053,23 @@
       <c r="D8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="22">
         <v>45407</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="22">
         <v>45412</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="22" t="s">
         <v>67</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>57</v>
       </c>
       <c r="J8" s="14"/>
-      <c r="K8" s="29"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" ht="22.5" spans="1:11">
       <c r="A9" s="6"/>
@@ -3069,20 +3081,20 @@
       <c r="E9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="22">
         <v>45418</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="22">
         <v>45422</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="22" t="s">
         <v>67</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>57</v>
       </c>
       <c r="J9" s="14"/>
-      <c r="K9" s="29"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" ht="22.5" spans="1:11">
       <c r="A10" s="6"/>
@@ -3094,20 +3106,20 @@
       <c r="E10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="22">
         <v>45423</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="22">
         <v>45428</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="22" t="s">
         <v>67</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>57</v>
       </c>
       <c r="J10" s="14"/>
-      <c r="K10" s="29"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" ht="22.5" spans="1:11">
       <c r="A11" s="6"/>
@@ -3119,20 +3131,20 @@
       <c r="E11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="22">
         <v>45429</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="22">
         <v>45430</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="22" t="s">
         <v>71</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>57</v>
       </c>
       <c r="J11" s="14"/>
-      <c r="K11" s="29"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" ht="22.5" spans="1:11">
       <c r="A12" s="6"/>
@@ -3144,20 +3156,20 @@
       <c r="E12" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="22">
         <v>45431</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="22">
         <v>45436</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="22" t="s">
         <v>67</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>57</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="29"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" ht="22.5" spans="1:11">
       <c r="A13" s="6"/>
@@ -3169,12 +3181,12 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="5"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="28">
+      <c r="K13" s="30">
         <v>1</v>
       </c>
     </row>
@@ -3190,70 +3202,70 @@
       <c r="E14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="21">
         <v>45418</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="21">
         <v>45426</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="21" t="s">
         <v>74</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>65</v>
       </c>
       <c r="J14" s="7"/>
-      <c r="K14" s="28">
+      <c r="K14" s="30">
         <v>2</v>
       </c>
-      <c r="L14" s="30" t="s">
+      <c r="L14" s="32" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" ht="22.5" spans="1:11">
       <c r="A15" s="6"/>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
     </row>
     <row r="16" ht="45" spans="1:12">
       <c r="A16" s="6"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="15" t="s">
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="30" t="s">
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="32" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" ht="22.5" spans="1:11">
       <c r="A17" s="6"/>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -3261,17 +3273,17 @@
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="10"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="29"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" ht="22.5" spans="1:11">
       <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -3280,116 +3292,94 @@
       <c r="E18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="22">
         <v>45427</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="22">
         <v>45430</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="22" t="s">
         <v>79</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>57</v>
       </c>
       <c r="J18" s="14"/>
-      <c r="K18" s="29"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" ht="45" spans="1:11">
       <c r="A19" s="6"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="22">
         <v>45432</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="22">
         <v>45437</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="22" t="s">
         <v>81</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>57</v>
       </c>
       <c r="J19" s="14"/>
-      <c r="K19" s="29"/>
-    </row>
-    <row r="20" ht="22.5" spans="1:12">
-      <c r="A20" s="17" t="s">
+      <c r="K19" s="31"/>
+    </row>
+    <row r="20" ht="20.25" spans="1:12">
+      <c r="A20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="10"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="27"/>
-    </row>
-    <row r="21" ht="22.5" spans="1:11">
-      <c r="A21" s="17"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="20">
-        <v>45438</v>
-      </c>
-      <c r="G21" s="20">
-        <v>45443</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="29"/>
+    </row>
+    <row r="21" ht="20.25" spans="1:11">
+      <c r="A21" s="19"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="29"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" ht="27.75" spans="1:12">
-      <c r="A22" s="17"/>
-      <c r="B22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="A22" s="19"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="33" t="s">
+      <c r="K22" s="28"/>
+      <c r="L22" s="35" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="23" ht="22.5" spans="1:11">
-      <c r="A23" s="17"/>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -3397,18 +3387,18 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="5"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="28">
+      <c r="K23" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="24" ht="45" spans="1:11">
-      <c r="A24" s="17"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="5" t="s">
         <v>87</v>
       </c>
@@ -3418,26 +3408,26 @@
       <c r="E24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="21">
         <v>45418</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="21">
         <v>45426</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="21" t="s">
         <v>63</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>65</v>
       </c>
       <c r="J24" s="7"/>
-      <c r="K24" s="28">
+      <c r="K24" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="25" ht="22.5" spans="1:11">
-      <c r="A25" s="17"/>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="17" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -3445,16 +3435,16 @@
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
       <c r="I25" s="10"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="29"/>
+      <c r="K25" s="31"/>
     </row>
     <row r="26" ht="22.5" spans="2:11">
-      <c r="B26" s="8"/>
-      <c r="C26" s="18" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="20" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -3463,44 +3453,44 @@
       <c r="E26" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="22">
         <v>45431</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="20" t="s">
         <v>65</v>
       </c>
       <c r="J26" s="14"/>
-      <c r="K26" s="29"/>
+      <c r="K26" s="31"/>
     </row>
     <row r="27" ht="22.5" spans="2:11">
-      <c r="B27" s="8"/>
-      <c r="C27" s="18"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="10" t="s">
         <v>91</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="22">
         <v>45437</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="22">
         <v>45442</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="20" t="s">
         <v>65</v>
       </c>
       <c r="J27" s="14"/>
-      <c r="K27" s="29"/>
+      <c r="K27" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/SOURCE/work.xlsx
+++ b/SOURCE/work.xlsx
@@ -1182,7 +1182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1256,6 +1256,9 @@
     <xf numFmtId="14" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1285,6 +1288,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1818,243 +1824,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="62"/>
-      <c r="B1" s="58" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="68" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="61"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="63"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="63"/>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="63" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63"/>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="65"/>
+      <c r="B4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="63" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="63"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="67" t="s">
+      <c r="G5" s="63"/>
+      <c r="H5" s="69" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="63"/>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="65"/>
+      <c r="B6" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="67" t="s">
+      <c r="G6" s="63"/>
+      <c r="H6" s="69" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="61"/>
+      <c r="G7" s="63"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="63"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="61"/>
+      <c r="G8" s="63"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="63"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47" t="s">
+      <c r="A9" s="65"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="61"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="63"/>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="61"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="67" t="s">
+      <c r="G11" s="63"/>
+      <c r="H11" s="69" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="63"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="61"/>
+      <c r="G12" s="63"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="63"/>
-      <c r="B13" s="47" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="61"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="63"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="63"/>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="61"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="63"/>
     </row>
     <row r="15" ht="15.75" spans="1:7">
-      <c r="A15" s="64"/>
-      <c r="B15" s="65" t="s">
+      <c r="A15" s="66"/>
+      <c r="B15" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="68"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2092,12 +2098,12 @@
   <cols>
     <col min="1" max="1" width="8.88148148148148" customWidth="1"/>
     <col min="2" max="2" width="7.11111111111111" customWidth="1"/>
-    <col min="3" max="3" width="8.33333333333333" style="36" customWidth="1"/>
-    <col min="4" max="4" width="43.4444444444444" style="36" customWidth="1"/>
-    <col min="5" max="5" width="7.33333333333333" style="37" customWidth="1"/>
-    <col min="6" max="6" width="10.6666666666667" style="37" customWidth="1"/>
-    <col min="7" max="7" width="9.77777777777778" style="37" customWidth="1"/>
-    <col min="8" max="8" width="12.5555555555556" style="37" customWidth="1"/>
+    <col min="3" max="3" width="8.33333333333333" style="38" customWidth="1"/>
+    <col min="4" max="4" width="43.4444444444444" style="38" customWidth="1"/>
+    <col min="5" max="5" width="7.33333333333333" style="39" customWidth="1"/>
+    <col min="6" max="6" width="10.6666666666667" style="39" customWidth="1"/>
+    <col min="7" max="7" width="9.77777777777778" style="39" customWidth="1"/>
+    <col min="8" max="8" width="12.5555555555556" style="39" customWidth="1"/>
     <col min="9" max="9" width="22.7777777777778" customWidth="1"/>
     <col min="10" max="10" width="7.44444444444444" customWidth="1"/>
     <col min="11" max="11" width="6.11111111111111" customWidth="1"/>
@@ -2106,759 +2112,759 @@
   <sheetData>
     <row r="1" ht="15.75"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-    </row>
-    <row r="3" s="29" customFormat="1" ht="18.6" customHeight="1" spans="1:12">
-      <c r="A3" s="40" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+    </row>
+    <row r="3" s="30" customFormat="1" ht="18.6" customHeight="1" spans="1:12">
+      <c r="A3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="56">
         <v>45408</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="56">
         <v>45412</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="43" t="s">
+      <c r="H3" s="56"/>
+      <c r="I3" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="29" t="s">
+      <c r="J3" s="45"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" s="29" customFormat="1" ht="39.6" customHeight="1" spans="1:11">
-      <c r="A4" s="44"/>
-      <c r="B4" s="41" t="s">
+    <row r="4" s="30" customFormat="1" ht="39.6" customHeight="1" spans="1:11">
+      <c r="A4" s="46"/>
+      <c r="B4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="56">
         <v>45409</v>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="56">
         <v>45425</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="43" t="s">
+      <c r="H4" s="56"/>
+      <c r="I4" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="60"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" ht="16.5" spans="1:11">
-      <c r="A5" s="44"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="46" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="61"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" ht="33" spans="1:11">
-      <c r="A6" s="44"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="56">
         <v>45405</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="56">
         <v>45421</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:11">
-      <c r="A7" s="44"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="56">
         <v>45407</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="56">
         <v>45412</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="61"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" ht="16.5" spans="1:11">
-      <c r="A8" s="44"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="48" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="56">
         <v>45409</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="56">
         <v>45412</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="61"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" ht="16.5" spans="1:11">
-      <c r="A9" s="44"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="43" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="56">
         <v>45407</v>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="56">
         <v>45412</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="61"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" ht="16.5" spans="1:11">
-      <c r="A10" s="44"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="43" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="56">
         <v>45418</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="56">
         <v>45422</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="61"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" ht="16.5" spans="1:11">
-      <c r="A11" s="44"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="43" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="56">
         <v>45423</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="56">
         <v>45428</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="47"/>
-      <c r="K11" s="61"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" ht="16.5" spans="1:11">
-      <c r="A12" s="44"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="43" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="56">
         <v>45429</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="56">
         <v>45430</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="61"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" ht="16.5" spans="1:11">
-      <c r="A13" s="44"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="47" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="56">
         <v>45431</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="56">
         <v>45436</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="61"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="63"/>
     </row>
     <row r="14" ht="16.5" spans="1:11">
-      <c r="A14" s="44"/>
-      <c r="B14" s="41" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="56">
         <v>45405</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="56">
         <v>45423</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="H14" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="47"/>
-      <c r="K14" s="61">
+      <c r="J14" s="49"/>
+      <c r="K14" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:11">
-      <c r="A15" s="44"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="56">
         <v>45418</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="56">
         <v>45426</v>
       </c>
-      <c r="H15" s="54" t="s">
+      <c r="H15" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="47"/>
-      <c r="K15" s="61">
+      <c r="J15" s="49"/>
+      <c r="K15" s="63">
         <v>2</v>
       </c>
     </row>
     <row r="16" ht="33" spans="1:11">
-      <c r="A16" s="44"/>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="56">
         <v>45422</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="56">
         <v>45426</v>
       </c>
-      <c r="H16" s="54" t="s">
+      <c r="H16" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="61"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="63"/>
     </row>
     <row r="17" ht="16.5" spans="1:11">
-      <c r="A17" s="44"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="46" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="56">
         <v>45427</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="56">
         <v>45430</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="47"/>
-      <c r="K17" s="61"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="63"/>
     </row>
     <row r="18" ht="16.5" spans="1:11">
-      <c r="A18" s="44"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="43" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="56">
         <v>45432</v>
       </c>
-      <c r="G18" s="54">
+      <c r="G18" s="56">
         <v>45437</v>
       </c>
-      <c r="H18" s="54" t="s">
+      <c r="H18" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="47"/>
-      <c r="K18" s="61"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="63"/>
     </row>
     <row r="19" ht="16.5" spans="1:11">
-      <c r="A19" s="44"/>
-      <c r="B19" s="41" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="56">
         <v>45427</v>
       </c>
-      <c r="G19" s="54">
+      <c r="G19" s="56">
         <v>45434</v>
       </c>
-      <c r="H19" s="54" t="s">
+      <c r="H19" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="47"/>
-      <c r="K19" s="61"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="63"/>
     </row>
     <row r="20" ht="16.5" spans="1:11">
-      <c r="A20" s="44"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="50" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20" s="56">
         <v>45438</v>
       </c>
-      <c r="G20" s="54">
+      <c r="G20" s="56">
         <v>45443</v>
       </c>
-      <c r="H20" s="54" t="s">
+      <c r="H20" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="43" t="s">
+      <c r="I20" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="47"/>
-      <c r="K20" s="61"/>
-    </row>
-    <row r="21" s="29" customFormat="1" ht="18.6" customHeight="1" spans="1:12">
-      <c r="A21" s="51" t="s">
+      <c r="J20" s="49"/>
+      <c r="K20" s="63"/>
+    </row>
+    <row r="21" s="30" customFormat="1" ht="18.6" customHeight="1" spans="1:12">
+      <c r="A21" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="56">
         <v>45408</v>
       </c>
-      <c r="G21" s="54">
+      <c r="G21" s="56">
         <v>45421</v>
       </c>
-      <c r="H21" s="54" t="s">
+      <c r="H21" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="29" t="s">
+      <c r="J21" s="45"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:11">
-      <c r="A22" s="51"/>
-      <c r="B22" s="41" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="56">
         <v>45409</v>
       </c>
-      <c r="G22" s="54">
+      <c r="G22" s="56">
         <v>45423</v>
       </c>
-      <c r="H22" s="54" t="s">
+      <c r="H22" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="47"/>
-      <c r="K22" s="61">
+      <c r="J22" s="49"/>
+      <c r="K22" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="1:11">
-      <c r="A23" s="51"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="50" t="s">
+      <c r="A23" s="53"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="54">
+      <c r="F23" s="56">
         <v>45418</v>
       </c>
-      <c r="G23" s="54">
+      <c r="G23" s="56">
         <v>45426</v>
       </c>
-      <c r="H23" s="54" t="s">
+      <c r="H23" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="J23" s="47"/>
-      <c r="K23" s="61">
+      <c r="J23" s="49"/>
+      <c r="K23" s="63">
         <v>2</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:11">
-      <c r="A24" s="51"/>
-      <c r="B24" s="41" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="56">
         <v>45426</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G24" s="56">
         <v>45430</v>
       </c>
-      <c r="H24" s="54" t="s">
+      <c r="H24" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I24" s="43" t="s">
+      <c r="I24" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="47"/>
-      <c r="K24" s="61"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="63"/>
     </row>
     <row r="25" ht="16.5" spans="1:11">
-      <c r="A25" s="51"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="50" t="s">
+      <c r="A25" s="53"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="54">
+      <c r="F25" s="56">
         <v>45431</v>
       </c>
-      <c r="G25" s="54" t="s">
+      <c r="G25" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="54" t="s">
+      <c r="H25" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="47"/>
-      <c r="K25" s="61"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="63"/>
     </row>
     <row r="26" ht="16.5" spans="1:11">
-      <c r="A26" s="51"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="43" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="54">
+      <c r="F26" s="56">
         <v>45437</v>
       </c>
-      <c r="G26" s="54">
+      <c r="G26" s="56">
         <v>45442</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="43" t="s">
+      <c r="I26" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="47"/>
-      <c r="K26" s="61"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="63"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="53"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="55"/>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2887,7 +2893,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -2925,13 +2931,13 @@
       <c r="I1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="27"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" ht="20.25" spans="1:12">
       <c r="A2" s="3" t="s">
@@ -2946,8 +2952,8 @@
       <c r="H2" s="21"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" ht="20.25" spans="1:12">
       <c r="A3" s="6"/>
@@ -2962,8 +2968,8 @@
       <c r="H3" s="21"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
     </row>
     <row r="4" ht="22.5" spans="1:12">
       <c r="A4" s="6"/>
@@ -2986,7 +2992,7 @@
         <v>57</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="30"/>
+      <c r="K4" s="31"/>
       <c r="L4" t="s">
         <v>92</v>
       </c>
@@ -3004,7 +3010,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="10"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="31"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" ht="20.25" spans="1:11">
       <c r="A6" s="6"/>
@@ -3017,7 +3023,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="10"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="31"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" ht="22.5" spans="1:11">
       <c r="A7" s="6"/>
@@ -3044,7 +3050,7 @@
         <v>65</v>
       </c>
       <c r="J7" s="14"/>
-      <c r="K7" s="31"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" ht="22.5" spans="1:11">
       <c r="A8" s="6"/>
@@ -3069,7 +3075,7 @@
         <v>57</v>
       </c>
       <c r="J8" s="14"/>
-      <c r="K8" s="31"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" ht="22.5" spans="1:11">
       <c r="A9" s="6"/>
@@ -3094,7 +3100,7 @@
         <v>57</v>
       </c>
       <c r="J9" s="14"/>
-      <c r="K9" s="31"/>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" ht="22.5" spans="1:11">
       <c r="A10" s="6"/>
@@ -3119,7 +3125,7 @@
         <v>57</v>
       </c>
       <c r="J10" s="14"/>
-      <c r="K10" s="31"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" ht="22.5" spans="1:11">
       <c r="A11" s="6"/>
@@ -3144,7 +3150,7 @@
         <v>57</v>
       </c>
       <c r="J11" s="14"/>
-      <c r="K11" s="31"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" ht="22.5" spans="1:11">
       <c r="A12" s="6"/>
@@ -3169,7 +3175,7 @@
         <v>57</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="31"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" ht="22.5" spans="1:11">
       <c r="A13" s="6"/>
@@ -3186,7 +3192,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="5"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="30">
+      <c r="K13" s="31">
         <v>1</v>
       </c>
     </row>
@@ -3215,10 +3221,10 @@
         <v>65</v>
       </c>
       <c r="J14" s="7"/>
-      <c r="K14" s="30">
+      <c r="K14" s="31">
         <v>2</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="33" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3236,8 +3242,8 @@
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="16" ht="45" spans="1:12">
       <c r="A16" s="6"/>
@@ -3248,7 +3254,7 @@
       <c r="D16" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="25" t="s">
         <v>68</v>
       </c>
       <c r="F16" s="24"/>
@@ -3257,9 +3263,9 @@
       <c r="I16" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="32" t="s">
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="33" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3278,7 +3284,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="10"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="31"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" ht="22.5" spans="1:11">
       <c r="A18" s="6"/>
@@ -3305,7 +3311,7 @@
         <v>57</v>
       </c>
       <c r="J18" s="14"/>
-      <c r="K18" s="31"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" ht="45" spans="1:11">
       <c r="A19" s="6"/>
@@ -3330,7 +3336,7 @@
         <v>57</v>
       </c>
       <c r="J19" s="14"/>
-      <c r="K19" s="31"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" ht="20.25" spans="1:12">
       <c r="A20" s="19" t="s">
@@ -3345,8 +3351,8 @@
       <c r="H20" s="22"/>
       <c r="I20" s="10"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="29"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="30"/>
     </row>
     <row r="21" ht="20.25" spans="1:11">
       <c r="A21" s="19"/>
@@ -3359,21 +3365,21 @@
       <c r="H21" s="22"/>
       <c r="I21" s="10"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="31"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" ht="27.75" spans="1:12">
       <c r="A22" s="19"/>
       <c r="B22" s="17"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="35" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="37" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3382,46 +3388,46 @@
       <c r="B23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="30">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="24" ht="45" spans="1:11">
       <c r="A24" s="19"/>
       <c r="B24" s="15"/>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="24">
         <v>45418</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="24">
         <v>45426</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="30">
+      <c r="J24" s="34"/>
+      <c r="K24" s="35">
         <v>2</v>
       </c>
     </row>
@@ -3440,7 +3446,7 @@
       <c r="H25" s="22"/>
       <c r="I25" s="10"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="31"/>
+      <c r="K25" s="32"/>
     </row>
     <row r="26" ht="22.5" spans="2:11">
       <c r="B26" s="17"/>
@@ -3466,7 +3472,7 @@
         <v>65</v>
       </c>
       <c r="J26" s="14"/>
-      <c r="K26" s="31"/>
+      <c r="K26" s="32"/>
     </row>
     <row r="27" ht="22.5" spans="2:11">
       <c r="B27" s="17"/>
@@ -3490,7 +3496,7 @@
         <v>65</v>
       </c>
       <c r="J27" s="14"/>
-      <c r="K27" s="31"/>
+      <c r="K27" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="13">
